--- a/biology/Microbiologie/Choanophryidae/Choanophryidae.xlsx
+++ b/biology/Microbiologie/Choanophryidae/Choanophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Choanophryidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Choanophrya, dérivé du grec ancien χόανος / chóanos, « entonnoir », et οφρύς / ophrýs, « cil ; sourcil »,
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Choanophryidae sont de Suctoriens ayant des tentacules atypiques en forme d'entonnoir dont l'axonème est dépourvu de l'habituelle couche microtubulaire interne ; ces tentacules sont spécialisés pour prélever les restes liquides de la nourriture de leur hôte. Leur macronoyau est sphérique ou ellipsoïde[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Choanophryidae sont de Suctoriens ayant des tentacules atypiques en forme d'entonnoir dont l'axonème est dépourvu de l'habituelle couche microtubulaire interne ; ces tentacules sont spécialisés pour prélever les restes liquides de la nourriture de leur hôte. Leur macronoyau est sphérique ou ellipsoïde.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Choanophryidae sont des protistes commensaux des crustacés d'eau douce[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Choanophryidae sont des protistes commensaux des crustacés d'eau douce.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (5 mai 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (5 mai 2023) :
 Anarma Goodrich &amp; Jahn, 1943
 Capriniana Strand, 1928
 Choanophrya Hartog, 1902
@@ -639,9 +659,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Choanophryidae Dovgal (d), 2002[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Choanophryidae Dovgal (d), 2002.
 </t>
         </is>
       </c>
@@ -670,7 +692,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Igor V. Dovgal, « Evolution, phylogeny and classification of Suctorea (Ciliophora) », Protistology, Russie, vol. 2, no 4,‎ 2002, p. 194–270 (ISSN 1680-0826, lire en ligne, consulté le 5 mai 2023).</t>
         </is>
